--- a/data/clients_data.xlsx
+++ b/data/clients_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>First Name_Demo</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -510,90 +510,75 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>First Name_Intake</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Referral Source</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Referral Source</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Date_Meeting</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Date_Meeting</t>
+          <t>Notes</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>MI_Salary</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Notes</t>
+          <t>Last Name_Salary</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>First Name_Salary</t>
+          <t>Role</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>MI_Salary</t>
+          <t>Success Salary</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Last Name_Salary</t>
+          <t>Date_Phone</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>Duration Minutes</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Success Salary</t>
+          <t xml:space="preserve">Call Summary </t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Date_Phone</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Duration Minutes</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Call Summary </t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>ClientID_Phone</t>
         </is>
@@ -661,90 +646,71 @@
           <t>GED</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Leila</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Leila</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="n">
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="n">
         <v>45661</v>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
           <t>In Progress</t>
         </is>
       </c>
+      <c r="R2" s="2" t="n">
+        <v>45720</v>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Leila</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>45720</v>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Strategic Career Planning</t>
+        </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Planning</t>
+          <t>B</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Strategic Career Planning</t>
+          <t>Stambuli</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Leila</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Stambuli</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
           <t>Teacher Aide</t>
         </is>
       </c>
-      <c r="AA2" t="n">
+      <c r="X2" t="n">
         <v>36000</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="Y2" s="2" t="n">
         <v>45692</v>
       </c>
+      <c r="Z2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Complaint</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Escalated</t>
+        </is>
+      </c>
       <c r="AC2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>Complaint</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Escalated</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>203-111-1111</t>
-        </is>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -805,86 +771,67 @@
           <t>High School</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Maimuna</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Maimuna</t>
-        </is>
-      </c>
-      <c r="P3" s="2" t="n">
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="n">
         <v>45659</v>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Friend</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Friend</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
           <t>Pending</t>
         </is>
       </c>
+      <c r="R3" s="2" t="n">
+        <v>45718</v>
+      </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Maimuna</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>45718</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
           <t>Progress</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Attended worksdhop</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Attended worksdhop</t>
+          <t>Hamidu-Bawa</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Maimuna</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Hamidu-Bawa</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
           <t>IT Support</t>
         </is>
       </c>
-      <c r="AA3" t="n">
+      <c r="X3" t="n">
         <v>55000</v>
       </c>
-      <c r="AB3" s="2" t="n">
+      <c r="Y3" s="2" t="n">
         <v>45690</v>
       </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Inquiry of Volunteer</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Follow-up</t>
+        </is>
+      </c>
       <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Inquiry of Volunteer</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>Follow-up</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>203-333-3333</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -949,90 +896,71 @@
           <t>Associates Degree</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Jacque</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Jacque</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="n">
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="n">
         <v>45660</v>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Ad</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Ad</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
           <t>Completed</t>
         </is>
       </c>
+      <c r="R4" s="2" t="n">
+        <v>45719</v>
+      </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Jacque</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>45719</v>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Feedback Session</t>
+        </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>A</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Feedback Session</t>
+          <t>Latif</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Jacque</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Latif</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
           <t>Teller</t>
         </is>
       </c>
-      <c r="AA4" t="n">
+      <c r="X4" t="n">
         <v>42000</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="Y4" s="2" t="n">
         <v>45691</v>
       </c>
+      <c r="Z4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Interview Status</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>Interview Status</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>203-555-5555</t>
-        </is>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1093,63 +1021,90 @@
           <t>Bachelors Degree</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Ashley_929-222-2222</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Friend</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Interview Techniques</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" s="2" t="n">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Admin Assistant</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v>38000</v>
+      </c>
+      <c r="Y5" s="2" t="n">
         <v>45694</v>
       </c>
+      <c r="Z5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Volunteer Status</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="AC5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Volunteer Status</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>929-222-2222</t>
-        </is>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ashley</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Khadazhaia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Grayson</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>29262</v>
+        <v>36532</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1158,7 +1113,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bronx</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1168,7 +1123,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1188,66 +1143,97 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Bachelors Degree</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Ashley_929-444-4444</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" s="2" t="n">
+          <t>Masters Degree</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Intro</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Discussed needs</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Grayson</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>HR Assistant</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>45000</v>
+      </c>
+      <c r="Y6" s="2" t="n">
         <v>45689</v>
       </c>
+      <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Inquiry of programs</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Follow-up</t>
+        </is>
+      </c>
       <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>Inquiry of programs</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>Follow-up</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>929-444-4444</t>
-        </is>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ashley</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>Khadazhaia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Grayson</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>29262</v>
+        <v>36532</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1256,7 +1242,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bronx</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1266,7 +1252,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1286,70 +1272,97 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Bachelors Degree</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Ashley_929-444-4444</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" s="2" t="n">
+          <t>Masters Degree</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Intro</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Discussed needs</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Grayson</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>HR Assistant</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>45000</v>
+      </c>
+      <c r="Y7" s="2" t="n">
         <v>45693</v>
       </c>
+      <c r="Z7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Success Story</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Resolved</t>
+        </is>
+      </c>
       <c r="AC7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>Success Story</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>Resolved</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>929-444-4444</t>
-        </is>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Khadazhaia</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Grayson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>36532</v>
+        <v>29262</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1358,7 +1371,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Bronx</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1368,7 +1381,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1388,116 +1401,97 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Masters Degree</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Khadazhaia</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Khadazhaia</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>45658</v>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Website</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>45721</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Khadazhaia</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>45717</v>
+          <t>Closing</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Success Story</t>
+        </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Intro</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Discussed needs</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Khadazhaia</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Grayson</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>HR Assistant</t>
-        </is>
-      </c>
-      <c r="AA8" t="n">
-        <v>45000</v>
-      </c>
-      <c r="AB8" s="2" t="n">
+          <t>Cashier</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>40000</v>
+      </c>
+      <c r="Y8" s="2" t="n">
         <v>45689</v>
       </c>
+      <c r="Z8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Inquiry of programs</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Follow-up</t>
+        </is>
+      </c>
       <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Inquiry of programs</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>Follow-up</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>929-444-4444</t>
-        </is>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Khadazhaia</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Grayson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>36532</v>
+        <v>29262</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1506,7 +1500,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Bronx</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1516,7 +1510,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1536,258 +1530,75 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Masters Degree</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Khadazhaia</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Khadazhaia</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>45658</v>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Website</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>45721</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Khadazhaia</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>45717</v>
+          <t>Closing</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Success Story</t>
+        </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Intro</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Discussed needs</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Khadazhaia</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Grayson</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>HR Assistant</t>
-        </is>
-      </c>
-      <c r="AA9" t="n">
-        <v>45000</v>
-      </c>
-      <c r="AB9" s="2" t="n">
+          <t>Cashier</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>40000</v>
+      </c>
+      <c r="Y9" s="2" t="n">
         <v>45693</v>
       </c>
+      <c r="Z9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Success Story</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Resolved</t>
+        </is>
+      </c>
       <c r="AC9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>Success Story</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>Resolved</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>929-444-4444</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Ashley_0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Ashley</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>45662</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Ashley</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>45721</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Closing</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Success Story</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Ashley</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Cashier</t>
-        </is>
-      </c>
-      <c r="AA10" t="n">
-        <v>40000</v>
-      </c>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Ashley_1</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Ashley</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Friend</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Ashley</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>45722</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Interview Techniques</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Ashley</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Admin Assistant</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
-        <v>38000</v>
-      </c>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/clients_data.xlsx
+++ b/data/clients_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,47 +540,32 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>MI_Salary</t>
+          <t>Role</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Last Name_Salary</t>
+          <t>Success Salary</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>Date_Phone</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Success Salary</t>
+          <t>Duration Minutes</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Date_Phone</t>
+          <t xml:space="preserve">Call Summary </t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Duration Minutes</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Call Summary </t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
           <t>Outcome</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>ClientID_Phone</t>
         </is>
       </c>
     </row>
@@ -677,40 +662,27 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Stambuli</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
           <t>Teacher Aide</t>
         </is>
       </c>
+      <c r="V2" t="n">
+        <v>36000</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>45692</v>
+      </c>
       <c r="X2" t="n">
-        <v>36000</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>45692</v>
-      </c>
-      <c r="Z2" t="n">
         <v>12</v>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Complaint</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Escalated</t>
         </is>
-      </c>
-      <c r="AC2" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -800,38 +772,29 @@
           <t>Attended worksdhop</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Hamidu-Bawa</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>IT Support</t>
         </is>
       </c>
+      <c r="V3" t="n">
+        <v>55000</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>45690</v>
+      </c>
       <c r="X3" t="n">
-        <v>55000</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>45690</v>
-      </c>
-      <c r="Z3" t="n">
         <v>15</v>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Inquiry of Volunteer</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Follow-up</t>
         </is>
-      </c>
-      <c r="AC3" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -927,40 +890,27 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Latif</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
           <t>Teller</t>
         </is>
       </c>
+      <c r="V4" t="n">
+        <v>42000</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>45691</v>
+      </c>
       <c r="X4" t="n">
-        <v>42000</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>45691</v>
-      </c>
-      <c r="Z4" t="n">
         <v>8</v>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Interview Status</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
-      </c>
-      <c r="AC4" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1050,38 +1000,29 @@
           <t>Interview Techniques</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>Admin Assistant</t>
         </is>
       </c>
+      <c r="V5" t="n">
+        <v>38000</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>45694</v>
+      </c>
       <c r="X5" t="n">
-        <v>38000</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>45694</v>
-      </c>
-      <c r="Z5" t="n">
         <v>20</v>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>Volunteer Status</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
-      </c>
-      <c r="AC5" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1177,40 +1118,27 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Grayson</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
           <t>HR Assistant</t>
         </is>
       </c>
+      <c r="V6" t="n">
+        <v>45000</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>45689</v>
+      </c>
       <c r="X6" t="n">
-        <v>45000</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>45689</v>
-      </c>
-      <c r="Z6" t="n">
         <v>10</v>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Inquiry of programs</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Follow-up</t>
         </is>
-      </c>
-      <c r="AC6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1306,40 +1234,27 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Grayson</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
           <t>HR Assistant</t>
         </is>
       </c>
+      <c r="V7" t="n">
+        <v>45000</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>45693</v>
+      </c>
       <c r="X7" t="n">
-        <v>45000</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>45693</v>
-      </c>
-      <c r="Z7" t="n">
         <v>20</v>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>Success Story</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>Resolved</t>
         </is>
-      </c>
-      <c r="AC7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1435,40 +1350,27 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
           <t>Cashier</t>
         </is>
       </c>
+      <c r="V8" t="n">
+        <v>40000</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>45689</v>
+      </c>
       <c r="X8" t="n">
-        <v>40000</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>45689</v>
-      </c>
-      <c r="Z8" t="n">
         <v>10</v>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Inquiry of programs</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>Follow-up</t>
         </is>
-      </c>
-      <c r="AC8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1564,40 +1466,27 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
           <t>Cashier</t>
         </is>
       </c>
+      <c r="V9" t="n">
+        <v>40000</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>45693</v>
+      </c>
       <c r="X9" t="n">
-        <v>40000</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>45693</v>
-      </c>
-      <c r="Z9" t="n">
         <v>20</v>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Success Story</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>Resolved</t>
         </is>
-      </c>
-      <c r="AC9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
